--- a/LEET AND GIT.xlsx
+++ b/LEET AND GIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7605"/>
+    <workbookView windowWidth="20475" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>S.NO</t>
   </si>
@@ -86,6 +86,210 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/product-of-array-except-self/submissions/1859430277/</t>
+  </si>
+  <si>
+    <t>Running sum og 1d array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/running-sum-of-1d-array/submissions/1873089699/</t>
+  </si>
+  <si>
+    <t>find pivot index</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-pivot-index/submissions/1873087737/</t>
+  </si>
+  <si>
+    <t>find number even num of dig</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-numbers-with-even-number-of-digits/submissions/1873113255/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fibonacci Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/fibonacci-number/submissions/1873239237/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Reverse Linked List (Recursive)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-linked-list/submissions/1873262279/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Binary Search</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-search/submissions/1873272868/</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/missing-number/submissions/1873276620/</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-parentheses/submissions/1873282570/</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/submissions/1873293728/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Build Array from Permutation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/build-array-from-permutation/submissions/1873318601/</t>
+  </si>
+  <si>
+    <t>Squares of a Sorted Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/squares-of-a-sorted-array/submissions/1873327781/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contains Duplicate</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contains-duplicate/submissions/1873335441/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valid Palindrome</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-palindrome/submissions/1873338310/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Length of Last Word</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/length-of-last-word/submissions/1873341650/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Power of Two</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/power-of-two/submissions/1873343591/</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/guess-number-higher-or-lower/submissions/1873346703/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Third Maximum Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/third-maximum-number/submissions/1873351668/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Majority Element</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/majority-element/submissions/1873354417/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Linked List Cycle</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle/submissions/1873365027/</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/climbing-stairs/submissions/1873368119/</t>
+  </si>
+  <si>
+    <t>Final Value of Variable After Performing Operations</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/final-value-of-variable-after-performing-operations/submissions/1873372107/</t>
+  </si>
+  <si>
+    <t>Find the Highest Altitude</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-highest-altitude/submissions/1873376723/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Single Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/single-number/submissions/1873379710/</t>
+  </si>
+  <si>
+    <t>Detect Capital</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/detect-capital/submissions/1873382823/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> First Unique Character in a String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/first-unique-character-in-a-string/submissions/1873388842/</t>
+  </si>
+  <si>
+    <t>Power of Three</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/power-of-three/submissions/1873390815/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N-th Tribonacci Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/n-th-tribonacci-number/submissions/1873393007/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Count Negative Numbers in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-negative-numbers-in-a-sorted-matrix/submissions/1873404220/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Largest Perimeter Triangle</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/largest-perimeter-triangle/submissions/1873407198/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Longest Palindrome</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-palindrome/submissions/1873429609/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-two-sorted-lists/submissions/1873432915/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reverse Words in a String III</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-words-in-a-string-iii/submissions/1873435924/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is Subsequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/is-subsequence/submissions/1873438915/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Richest Customer Wealth</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/richest-customer-wealth/submissions/1873464146/</t>
   </si>
 </sst>
 </file>
@@ -98,7 +302,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +314,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -572,138 +790,142 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,17 +1272,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="12.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="17.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="78.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="34.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="104.285714285714" customWidth="1"/>
     <col min="5" max="5" width="74.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1125,10 +1347,10 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1142,10 +1364,10 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1159,8 +1381,539 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1480</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>724</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1295</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>509</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>206</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>704</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>268</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>121</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1920</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>977</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>217</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>125</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>58</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>231</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>374</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>414</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>169</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>141</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>70</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2011</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1732</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>136</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>520</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>387</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>326</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1137</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1351</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>976</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>409</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>21</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>557</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>392</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1672</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1174,6 +1927,40 @@
     <hyperlink ref="E4" r:id="rId7" display="https://github.com/PSRIMATHI205/Leetcode/blob/master/Day1/ParitySort.txt"/>
     <hyperlink ref="E5" r:id="rId8" display="http://github.com/PSRIMATHI205/Leetcode/blob/master/Day1/RotateImage.txt"/>
     <hyperlink ref="D6" r:id="rId9" display="https://leetcode.com/problems/product-of-array-except-self/submissions/1859430277/"/>
+    <hyperlink ref="D7" r:id="rId10" display="https://leetcode.com/problems/running-sum-of-1d-array/submissions/1873089699/"/>
+    <hyperlink ref="D8" r:id="rId11" display="https://leetcode.com/problems/find-pivot-index/submissions/1873087737/"/>
+    <hyperlink ref="D9" r:id="rId12" display="https://leetcode.com/problems/find-numbers-with-even-number-of-digits/submissions/1873113255/"/>
+    <hyperlink ref="D10" r:id="rId13" display="https://leetcode.com/problems/fibonacci-number/submissions/1873239237/"/>
+    <hyperlink ref="D11" r:id="rId14" display="https://leetcode.com/problems/reverse-linked-list/submissions/1873262279/"/>
+    <hyperlink ref="D12" r:id="rId15" display="https://leetcode.com/problems/binary-search/submissions/1873272868/"/>
+    <hyperlink ref="D13" r:id="rId16" display="https://leetcode.com/problems/missing-number/submissions/1873276620/"/>
+    <hyperlink ref="D14" r:id="rId17" display="https://leetcode.com/problems/valid-parentheses/submissions/1873282570/"/>
+    <hyperlink ref="D15" r:id="rId18" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/submissions/1873293728/"/>
+    <hyperlink ref="D16" r:id="rId19" display="https://leetcode.com/problems/build-array-from-permutation/submissions/1873318601/"/>
+    <hyperlink ref="D17" r:id="rId20" display="https://leetcode.com/problems/squares-of-a-sorted-array/submissions/1873327781/"/>
+    <hyperlink ref="D18" r:id="rId21" display="https://leetcode.com/problems/contains-duplicate/submissions/1873335441/"/>
+    <hyperlink ref="D19" r:id="rId22" display="https://leetcode.com/problems/valid-palindrome/submissions/1873338310/"/>
+    <hyperlink ref="D20" r:id="rId23" display="https://leetcode.com/problems/length-of-last-word/submissions/1873341650/"/>
+    <hyperlink ref="D21" r:id="rId24" display="https://leetcode.com/problems/power-of-two/submissions/1873343591/"/>
+    <hyperlink ref="D22" r:id="rId25" display="https://leetcode.com/problems/guess-number-higher-or-lower/submissions/1873346703/"/>
+    <hyperlink ref="D23" r:id="rId26" display="https://leetcode.com/problems/third-maximum-number/submissions/1873351668/"/>
+    <hyperlink ref="D24" r:id="rId27" display="https://leetcode.com/problems/majority-element/submissions/1873354417/"/>
+    <hyperlink ref="D25" r:id="rId28" display="https://leetcode.com/problems/linked-list-cycle/submissions/1873365027/"/>
+    <hyperlink ref="D26" r:id="rId29" display="https://leetcode.com/problems/climbing-stairs/submissions/1873368119/"/>
+    <hyperlink ref="D27" r:id="rId30" display="https://leetcode.com/problems/final-value-of-variable-after-performing-operations/submissions/1873372107/"/>
+    <hyperlink ref="D28" r:id="rId31" display="https://leetcode.com/problems/find-the-highest-altitude/submissions/1873376723/"/>
+    <hyperlink ref="D29" r:id="rId32" display="https://leetcode.com/problems/single-number/submissions/1873379710/" tooltip="https://leetcode.com/problems/single-number/submissions/1873379710/"/>
+    <hyperlink ref="D30" r:id="rId33" display="https://leetcode.com/problems/detect-capital/submissions/1873382823/"/>
+    <hyperlink ref="D31" r:id="rId34" display="https://leetcode.com/problems/first-unique-character-in-a-string/submissions/1873388842/"/>
+    <hyperlink ref="D32" r:id="rId35" display="https://leetcode.com/problems/power-of-three/submissions/1873390815/"/>
+    <hyperlink ref="D33" r:id="rId36" display="https://leetcode.com/problems/n-th-tribonacci-number/submissions/1873393007/"/>
+    <hyperlink ref="D35" r:id="rId37" display="https://leetcode.com/problems/largest-perimeter-triangle/submissions/1873407198/"/>
+    <hyperlink ref="D34" r:id="rId38" display="https://leetcode.com/problems/count-negative-numbers-in-a-sorted-matrix/submissions/1873404220/"/>
+    <hyperlink ref="D36" r:id="rId39" display="https://leetcode.com/problems/longest-palindrome/submissions/1873429609/"/>
+    <hyperlink ref="D37" r:id="rId40" display="https://leetcode.com/problems/merge-two-sorted-lists/submissions/1873432915/"/>
+    <hyperlink ref="D38" r:id="rId41" display="https://leetcode.com/problems/reverse-words-in-a-string-iii/submissions/1873435924/"/>
+    <hyperlink ref="D39" r:id="rId42" display="https://leetcode.com/problems/is-subsequence/submissions/1873438915/"/>
+    <hyperlink ref="D40" r:id="rId43" display="https://leetcode.com/problems/richest-customer-wealth/submissions/1873464146/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
